--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/reg_working_nonworking.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/reg_working_nonworking.xlsx
@@ -44,10 +44,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -138,16 +137,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -170,23 +169,22 @@
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -197,7 +195,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -206,17 +204,17 @@
       <c r="C2" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -225,17 +223,17 @@
       <c r="C3" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -244,17 +242,17 @@
       <c r="C4" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="D4" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -263,17 +261,17 @@
       <c r="C5" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="D5" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -282,17 +280,17 @@
       <c r="C6" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="n">
@@ -301,17 +299,17 @@
       <c r="C7" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -320,17 +318,17 @@
       <c r="C8" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="n">
@@ -339,17 +337,17 @@
       <c r="C9" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="D9" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="n">
@@ -358,17 +356,17 @@
       <c r="C10" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="D10" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="n">
@@ -377,17 +375,17 @@
       <c r="C11" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="D11" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="n">
@@ -396,17 +394,17 @@
       <c r="C12" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="D12" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="n">
@@ -415,17 +413,17 @@
       <c r="C13" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="D13" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="n">
@@ -434,17 +432,17 @@
       <c r="C14" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="D14" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="n">
@@ -453,17 +451,17 @@
       <c r="C15" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="n">
+      <c r="D15" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="n">
@@ -472,17 +470,17 @@
       <c r="C16" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
+      <c r="D16" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="n">
@@ -491,17 +489,17 @@
       <c r="C17" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="n">
+      <c r="D17" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="n">
@@ -510,17 +508,17 @@
       <c r="C18" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="n">
+      <c r="D18" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="n">
@@ -529,17 +527,17 @@
       <c r="C19" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="n">
+      <c r="D19" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="n">
@@ -548,17 +546,17 @@
       <c r="C20" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="n">
+      <c r="D20" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="n">
@@ -567,17 +565,17 @@
       <c r="C21" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="n">
+      <c r="D21" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="n">
@@ -586,17 +584,17 @@
       <c r="C22" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
+      <c r="D22" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="n">
@@ -605,17 +603,17 @@
       <c r="C23" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="n">
+      <c r="D23" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="n">
@@ -624,17 +622,17 @@
       <c r="C24" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="n">
+      <c r="D24" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="1" t="n">
@@ -643,17 +641,17 @@
       <c r="C25" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="n">
+      <c r="D25" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="1" t="n">
@@ -662,17 +660,17 @@
       <c r="C26" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="n">
+      <c r="D26" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="1" t="n">
@@ -681,17 +679,17 @@
       <c r="C27" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="n">
+      <c r="D27" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="n">
@@ -700,17 +698,17 @@
       <c r="C28" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="n">
+      <c r="D28" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1" t="n">
@@ -719,17 +717,17 @@
       <c r="C29" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="n">
+      <c r="D29" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="1" t="n">
@@ -738,17 +736,17 @@
       <c r="C30" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="2" t="n">
+      <c r="D30" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="1" t="n">
@@ -757,17 +755,17 @@
       <c r="C31" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="n">
+      <c r="D31" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1" t="n">
@@ -776,17 +774,17 @@
       <c r="C32" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="n">
+      <c r="D32" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1" t="n">
@@ -795,17 +793,17 @@
       <c r="C33" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="n">
+      <c r="D33" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="1" t="n">
@@ -814,17 +812,17 @@
       <c r="C34" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="n">
+      <c r="D34" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1" t="n">
@@ -833,17 +831,17 @@
       <c r="C35" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="n">
+      <c r="D35" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="n">
@@ -852,17 +850,17 @@
       <c r="C36" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="2" t="n">
+      <c r="D36" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="n">
@@ -871,17 +869,17 @@
       <c r="C37" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D37" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="2" t="n">
+      <c r="D37" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="1" t="n">
@@ -890,17 +888,17 @@
       <c r="C38" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D38" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="n">
+      <c r="D38" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="1" t="n">
@@ -909,17 +907,17 @@
       <c r="C39" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="n">
+      <c r="D39" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="1" t="n">
@@ -928,17 +926,17 @@
       <c r="C40" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D40" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="n">
+      <c r="D40" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="1" t="n">
@@ -947,17 +945,17 @@
       <c r="C41" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D41" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="n">
+      <c r="D41" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="1" t="n">
@@ -966,17 +964,17 @@
       <c r="C42" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D42" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="n">
+      <c r="D42" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="1" t="n">
@@ -985,17 +983,17 @@
       <c r="C43" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="2" t="n">
+      <c r="D43" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="1" t="n">
@@ -1004,17 +1002,17 @@
       <c r="C44" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D44" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="2" t="n">
+      <c r="D44" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="1" t="n">
@@ -1023,17 +1021,17 @@
       <c r="C45" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="n">
+      <c r="D45" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="1" t="n">
@@ -1042,17 +1040,17 @@
       <c r="C46" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E46" s="2" t="n">
+      <c r="D46" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="1" t="n">
@@ -1061,17 +1059,17 @@
       <c r="C47" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="n">
+      <c r="D47" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="1" t="n">
@@ -1080,17 +1078,17 @@
       <c r="C48" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="n">
+      <c r="D48" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="1" t="n">
@@ -1099,17 +1097,17 @@
       <c r="C49" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D49" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="n">
+      <c r="D49" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="1" t="n">
@@ -1118,17 +1116,17 @@
       <c r="C50" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D50" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="2" t="n">
+      <c r="D50" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="1" t="n">
@@ -1137,17 +1135,17 @@
       <c r="C51" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D51" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="2" t="n">
+      <c r="D51" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="1" t="n">
@@ -1156,17 +1154,17 @@
       <c r="C52" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D52" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="n">
+      <c r="D52" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="1" t="n">
@@ -1175,17 +1173,17 @@
       <c r="C53" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D53" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="2" t="n">
+      <c r="D53" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="1" t="n">
@@ -1194,17 +1192,17 @@
       <c r="C54" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D54" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="n">
+      <c r="D54" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="1" t="n">
@@ -1213,17 +1211,17 @@
       <c r="C55" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D55" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="n">
+      <c r="D55" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="1" t="n">
@@ -1232,17 +1230,17 @@
       <c r="C56" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D56" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E56" s="2" t="n">
+      <c r="D56" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="n">
@@ -1251,17 +1249,17 @@
       <c r="C57" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D57" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="2" t="n">
+      <c r="D57" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="1" t="n">
@@ -1270,17 +1268,17 @@
       <c r="C58" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D58" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="2" t="n">
+      <c r="D58" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="1" t="n">
@@ -1289,17 +1287,17 @@
       <c r="C59" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D59" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E59" s="2" t="n">
+      <c r="D59" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="1" t="n">
@@ -1308,17 +1306,17 @@
       <c r="C60" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D60" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E60" s="2" t="n">
+      <c r="D60" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="1" t="n">
@@ -1327,17 +1325,17 @@
       <c r="C61" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D61" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E61" s="2" t="n">
+      <c r="D61" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="1" t="n">
@@ -1346,17 +1344,17 @@
       <c r="C62" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D62" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="n">
+      <c r="D62" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="1" t="n">
@@ -1365,17 +1363,17 @@
       <c r="C63" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D63" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E63" s="2" t="n">
+      <c r="D63" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="1" t="n">
@@ -1384,17 +1382,17 @@
       <c r="C64" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D64" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="2" t="n">
+      <c r="D64" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="1" t="n">
@@ -1403,17 +1401,17 @@
       <c r="C65" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D65" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="2" t="n">
+      <c r="D65" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="1" t="n">
@@ -1422,17 +1420,17 @@
       <c r="C66" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D66" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E66" s="2" t="n">
+      <c r="D66" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="1" t="n">
@@ -1441,17 +1439,17 @@
       <c r="C67" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D67" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E67" s="2" t="n">
+      <c r="D67" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="1" t="n">
@@ -1460,17 +1458,17 @@
       <c r="C68" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D68" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E68" s="2" t="n">
+      <c r="D68" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="1" t="n">
@@ -1479,17 +1477,17 @@
       <c r="C69" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D69" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="n">
+      <c r="D69" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="1" t="n">
@@ -1498,17 +1496,17 @@
       <c r="C70" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D70" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="n">
+      <c r="D70" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="1" t="n">
@@ -1517,17 +1515,17 @@
       <c r="C71" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D71" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="2" t="n">
+      <c r="D71" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="1" t="n">
@@ -1536,17 +1534,17 @@
       <c r="C72" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D72" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="2" t="n">
+      <c r="D72" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="1" t="n">
@@ -1555,17 +1553,17 @@
       <c r="C73" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D73" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E73" s="2" t="n">
+      <c r="D73" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B74" s="1" t="n">
@@ -1574,17 +1572,17 @@
       <c r="C74" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D74" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E74" s="2" t="n">
+      <c r="D74" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B75" s="1" t="n">
@@ -1593,17 +1591,17 @@
       <c r="C75" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D75" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E75" s="2" t="n">
+      <c r="D75" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B76" s="1" t="n">
@@ -1612,17 +1610,17 @@
       <c r="C76" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D76" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E76" s="2" t="n">
+      <c r="D76" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="1" t="n">
@@ -1631,17 +1629,17 @@
       <c r="C77" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D77" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E77" s="2" t="n">
+      <c r="D77" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="1" t="n">
@@ -1650,17 +1648,17 @@
       <c r="C78" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D78" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E78" s="2" t="n">
+      <c r="D78" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="1" t="n">
@@ -1669,17 +1667,17 @@
       <c r="C79" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D79" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="2" t="n">
+      <c r="D79" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B80" s="1" t="n">
@@ -1688,17 +1686,17 @@
       <c r="C80" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D80" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E80" s="2" t="n">
+      <c r="D80" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="1" t="n">
@@ -1707,17 +1705,17 @@
       <c r="C81" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D81" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E81" s="2" t="n">
+      <c r="D81" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="1" t="n">
@@ -1726,17 +1724,17 @@
       <c r="C82" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D82" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E82" s="2" t="n">
+      <c r="D82" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B83" s="1" t="n">
@@ -1745,17 +1743,17 @@
       <c r="C83" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D83" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="n">
+      <c r="D83" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B84" s="1" t="n">
@@ -1764,17 +1762,17 @@
       <c r="C84" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D84" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E84" s="2" t="n">
+      <c r="D84" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="1" t="n">
@@ -1783,17 +1781,17 @@
       <c r="C85" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D85" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="2" t="n">
+      <c r="D85" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="1" t="n">
@@ -1802,17 +1800,17 @@
       <c r="C86" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D86" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="2" t="n">
+      <c r="D86" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="1" t="n">
@@ -1821,17 +1819,17 @@
       <c r="C87" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D87" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E87" s="2" t="n">
+      <c r="D87" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B88" s="1" t="n">
@@ -1840,17 +1838,17 @@
       <c r="C88" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D88" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E88" s="2" t="n">
+      <c r="D88" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="1" t="n">
@@ -1859,17 +1857,17 @@
       <c r="C89" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D89" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="n">
+      <c r="D89" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B90" s="1" t="n">
@@ -1878,17 +1876,17 @@
       <c r="C90" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D90" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E90" s="2" t="n">
+      <c r="D90" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B91" s="1" t="n">
@@ -1897,17 +1895,17 @@
       <c r="C91" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D91" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E91" s="2" t="n">
+      <c r="D91" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="1" t="n">
@@ -1916,17 +1914,17 @@
       <c r="C92" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D92" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="2" t="n">
+      <c r="D92" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="1" t="n">
@@ -1935,17 +1933,17 @@
       <c r="C93" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D93" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="2" t="n">
+      <c r="D93" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="1" t="n">
@@ -1954,17 +1952,17 @@
       <c r="C94" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D94" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E94" s="2" t="n">
+      <c r="D94" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="1" t="n">
@@ -1973,17 +1971,17 @@
       <c r="C95" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D95" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E95" s="2" t="n">
+      <c r="D95" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E95" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="1" t="n">
@@ -1992,17 +1990,17 @@
       <c r="C96" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D96" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E96" s="2" t="n">
+      <c r="D96" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E96" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="1" t="n">
@@ -2011,17 +2009,17 @@
       <c r="C97" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D97" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E97" s="2" t="n">
+      <c r="D97" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B98" s="1" t="n">
@@ -2030,17 +2028,17 @@
       <c r="C98" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D98" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E98" s="2" t="n">
+      <c r="D98" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B99" s="1" t="n">
@@ -2049,17 +2047,17 @@
       <c r="C99" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D99" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="2" t="n">
+      <c r="D99" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="1" t="n">
@@ -2068,17 +2066,17 @@
       <c r="C100" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D100" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="2" t="n">
+      <c r="D100" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="1" t="n">
@@ -2087,17 +2085,17 @@
       <c r="C101" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D101" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E101" s="2" t="n">
+      <c r="D101" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E101" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B102" s="1" t="n">
@@ -2106,17 +2104,17 @@
       <c r="C102" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D102" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E102" s="2" t="n">
+      <c r="D102" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B103" s="1" t="n">
@@ -2125,17 +2123,17 @@
       <c r="C103" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D103" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E103" s="2" t="n">
+      <c r="D103" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E103" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B104" s="1" t="n">
@@ -2144,17 +2142,17 @@
       <c r="C104" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D104" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E104" s="2" t="n">
+      <c r="D104" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="1" t="n">
@@ -2163,17 +2161,17 @@
       <c r="C105" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D105" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E105" s="2" t="n">
+      <c r="D105" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E105" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="1" t="n">
@@ -2182,11 +2180,11 @@
       <c r="C106" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D106" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n">
+      <c r="D106" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/reg_working_nonworking.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/reg_working_nonworking.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="8">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -39,6 +39,12 @@
   <si>
     <t xml:space="preserve">eng</t>
   </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
 </sst>
 </file>
 
@@ -48,7 +54,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -77,6 +83,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +140,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -146,6 +158,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,7 +185,7 @@
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+      <selection pane="topLeft" activeCell="D99" activeCellId="0" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -204,13 +220,11 @@
       <c r="C2" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,13 +237,11 @@
       <c r="C3" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -242,13 +254,11 @@
       <c r="C4" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,13 +271,11 @@
       <c r="C5" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,13 +288,11 @@
       <c r="C6" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,13 +305,11 @@
       <c r="C7" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,13 +322,11 @@
       <c r="C8" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -337,13 +339,11 @@
       <c r="C9" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,13 +356,11 @@
       <c r="C10" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,13 +373,11 @@
       <c r="C11" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,13 +390,11 @@
       <c r="C12" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,13 +407,11 @@
       <c r="C13" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,13 +424,11 @@
       <c r="C14" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,13 +441,11 @@
       <c r="C15" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,13 +458,11 @@
       <c r="C16" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,13 +475,11 @@
       <c r="C17" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,13 +492,11 @@
       <c r="C18" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,13 +509,11 @@
       <c r="C19" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,13 +526,11 @@
       <c r="C20" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,13 +543,11 @@
       <c r="C21" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,13 +560,11 @@
       <c r="C22" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,13 +577,11 @@
       <c r="C23" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,13 +594,11 @@
       <c r="C24" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,13 +611,11 @@
       <c r="C25" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,13 +628,11 @@
       <c r="C26" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,13 +645,11 @@
       <c r="C27" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,13 +662,11 @@
       <c r="C28" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,13 +679,11 @@
       <c r="C29" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,13 +696,11 @@
       <c r="C30" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D30" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,13 +713,11 @@
       <c r="C31" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,13 +730,11 @@
       <c r="C32" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D32" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,13 +747,11 @@
       <c r="C33" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,13 +764,11 @@
       <c r="C34" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D34" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,13 +781,11 @@
       <c r="C35" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D35" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,13 +798,11 @@
       <c r="C36" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D36" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,13 +815,11 @@
       <c r="C37" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D37" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,13 +832,11 @@
       <c r="C38" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D38" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,13 +849,11 @@
       <c r="C39" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D39" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,13 +866,11 @@
       <c r="C40" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D40" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,13 +883,11 @@
       <c r="C41" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,13 +900,11 @@
       <c r="C42" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D42" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,13 +917,11 @@
       <c r="C43" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D43" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,13 +934,11 @@
       <c r="C44" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D44" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,13 +951,11 @@
       <c r="C45" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D45" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,13 +968,11 @@
       <c r="C46" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D46" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,13 +985,11 @@
       <c r="C47" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D47" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,13 +1002,11 @@
       <c r="C48" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D48" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,13 +1019,11 @@
       <c r="C49" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D49" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,13 +1036,11 @@
       <c r="C50" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D50" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,13 +1053,11 @@
       <c r="C51" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D51" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,13 +1070,11 @@
       <c r="C52" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D52" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,13 +1087,11 @@
       <c r="C53" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D53" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,13 +1104,11 @@
       <c r="C54" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D54" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,13 +1121,11 @@
       <c r="C55" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,13 +1138,11 @@
       <c r="C56" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D56" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,13 +1155,11 @@
       <c r="C57" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D57" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,13 +1172,11 @@
       <c r="C58" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D58" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,13 +1189,11 @@
       <c r="C59" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D59" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,13 +1206,11 @@
       <c r="C60" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D60" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,13 +1223,11 @@
       <c r="C61" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D61" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,13 +1240,11 @@
       <c r="C62" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D62" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,13 +1257,11 @@
       <c r="C63" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D63" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,13 +1274,11 @@
       <c r="C64" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D64" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,13 +1291,11 @@
       <c r="C65" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D65" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,13 +1308,11 @@
       <c r="C66" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D66" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,13 +1325,11 @@
       <c r="C67" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D67" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E67" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,13 +1342,11 @@
       <c r="C68" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D68" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E68" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1477,13 +1359,11 @@
       <c r="C69" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D69" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,13 +1376,11 @@
       <c r="C70" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D70" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,13 +1393,11 @@
       <c r="C71" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D71" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1534,13 +1410,11 @@
       <c r="C72" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D72" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,13 +1427,11 @@
       <c r="C73" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D73" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E73" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,13 +1444,11 @@
       <c r="C74" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D74" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,13 +1461,11 @@
       <c r="C75" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D75" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,13 +1478,11 @@
       <c r="C76" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D76" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,13 +1495,11 @@
       <c r="C77" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D77" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,13 +1512,11 @@
       <c r="C78" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D78" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,13 +1529,11 @@
       <c r="C79" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D79" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,13 +1546,11 @@
       <c r="C80" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D80" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,13 +1563,11 @@
       <c r="C81" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D81" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,13 +1580,11 @@
       <c r="C82" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D82" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,13 +1597,11 @@
       <c r="C83" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D83" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,13 +1614,11 @@
       <c r="C84" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D84" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,13 +1631,11 @@
       <c r="C85" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D85" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,13 +1648,11 @@
       <c r="C86" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D86" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,13 +1665,11 @@
       <c r="C87" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D87" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,13 +1682,11 @@
       <c r="C88" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D88" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,13 +1699,11 @@
       <c r="C89" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D89" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,13 +1716,11 @@
       <c r="C90" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D90" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,13 +1733,11 @@
       <c r="C91" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D91" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,13 +1750,11 @@
       <c r="C92" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D92" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,13 +1767,11 @@
       <c r="C93" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D93" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,13 +1784,11 @@
       <c r="C94" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D94" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,13 +1801,11 @@
       <c r="C95" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D95" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,13 +1818,11 @@
       <c r="C96" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D96" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,13 +1835,11 @@
       <c r="C97" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D97" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,13 +1852,11 @@
       <c r="C98" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D98" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,13 +1869,11 @@
       <c r="C99" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D99" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,13 +1886,11 @@
       <c r="C100" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D100" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,13 +1903,11 @@
       <c r="C101" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D101" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,13 +1920,11 @@
       <c r="C102" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D102" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E102" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,13 +1937,11 @@
       <c r="C103" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D103" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E103" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,13 +1954,11 @@
       <c r="C104" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D104" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E104" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,13 +1971,11 @@
       <c r="C105" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="D105" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E105" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2180,13 +1988,11 @@
       <c r="C106" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="D106" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E106" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
